--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_80_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_80_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.091878669169342</v>
+        <v>2.069278987113834</v>
       </c>
       <c r="C2">
-        <v>1.196007574120336</v>
+        <v>1.177520783969736</v>
       </c>
       <c r="D2">
-        <v>2.799399740926124</v>
+        <v>2.691213444741802</v>
       </c>
       <c r="E2">
-        <v>0.05280590002446797</v>
+        <v>0.04895888020273446</v>
       </c>
       <c r="F2">
-        <v>0.9612401764795666</v>
+        <v>1.368801459534712</v>
       </c>
       <c r="G2">
-        <v>1685316.669589747</v>
+        <v>1154691.150716363</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.359915663823354</v>
+        <v>4.474022884790786</v>
       </c>
       <c r="C3">
-        <v>0.9573999452387072</v>
+        <v>1.170256897272811</v>
       </c>
       <c r="D3">
-        <v>1.021354500171396</v>
+        <v>1.210224352717188</v>
       </c>
       <c r="E3">
-        <v>0.04224761158176671</v>
+        <v>0.05727550726973886</v>
       </c>
       <c r="F3">
-        <v>1.418982847735148</v>
+        <v>1.391323330909711</v>
       </c>
       <c r="G3">
-        <v>782259.2520451633</v>
+        <v>1370097.296314723</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.674634499742057</v>
+        <v>4.305254945245842</v>
       </c>
       <c r="C4">
-        <v>1.053423827006999</v>
+        <v>1.094743731569249</v>
       </c>
       <c r="D4">
-        <v>2.836856517131295</v>
+        <v>2.888427683179171</v>
       </c>
       <c r="E4">
-        <v>0.03678474550221574</v>
+        <v>0.05015393735623878</v>
       </c>
       <c r="F4">
-        <v>0.8756167898979341</v>
+        <v>0.838232189842478</v>
       </c>
       <c r="G4">
-        <v>2137408.28091859</v>
+        <v>2006721.118770618</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.757411093085381</v>
+        <v>4.412860646464152</v>
       </c>
       <c r="C5">
-        <v>1.01000192539031</v>
+        <v>1.099510711290985</v>
       </c>
       <c r="D5">
-        <v>1.600070109529652</v>
+        <v>2.17918407500298</v>
       </c>
       <c r="E5">
-        <v>0.03039583053848939</v>
+        <v>0.03404344381357628</v>
       </c>
       <c r="F5">
-        <v>1.45310540341406</v>
+        <v>0.8885296438699318</v>
       </c>
       <c r="G5">
-        <v>934978.6666981812</v>
+        <v>2035286.625213633</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.17032041098984</v>
+        <v>4.721708572488006</v>
       </c>
       <c r="C6">
-        <v>1.151933293171297</v>
+        <v>1.133592145939664</v>
       </c>
       <c r="D6">
-        <v>2.523707967011492</v>
+        <v>1.851550388926237</v>
       </c>
       <c r="E6">
-        <v>0.03357688681904519</v>
+        <v>0.04958802068715387</v>
       </c>
       <c r="F6">
-        <v>1.499799136649762</v>
+        <v>1.273887553785111</v>
       </c>
       <c r="G6">
-        <v>1304197.931619145</v>
+        <v>1713811.764598628</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.551567656831804</v>
+        <v>1.741090806991375</v>
       </c>
       <c r="C7">
-        <v>1.092820656521439</v>
+        <v>1.077857006346779</v>
       </c>
       <c r="D7">
-        <v>1.234358555635341</v>
+        <v>1.84707821931691</v>
       </c>
       <c r="E7">
-        <v>0.04359895002674165</v>
+        <v>0.05407520733818383</v>
       </c>
       <c r="F7">
-        <v>1.218390589072731</v>
+        <v>1.408638838788705</v>
       </c>
       <c r="G7">
-        <v>1050021.548311237</v>
+        <v>740695.7647465899</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.35456002425779</v>
+        <v>3.387213655942926</v>
       </c>
       <c r="C8">
-        <v>1.054939338207827</v>
+        <v>1.030856080923963</v>
       </c>
       <c r="D8">
-        <v>1.56282242801993</v>
+        <v>2.053513403995207</v>
       </c>
       <c r="E8">
-        <v>0.03831975251906256</v>
+        <v>0.04090030148918294</v>
       </c>
       <c r="F8">
-        <v>1.030644586454433</v>
+        <v>0.9679987902988247</v>
       </c>
       <c r="G8">
-        <v>1699703.884772665</v>
+        <v>1502798.370765928</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.394473681545954</v>
+        <v>3.174453551556773</v>
       </c>
       <c r="C9">
-        <v>1.067566530169983</v>
+        <v>1.024831612308137</v>
       </c>
       <c r="D9">
-        <v>2.103887468108948</v>
+        <v>2.828349679610319</v>
       </c>
       <c r="E9">
-        <v>0.04733912331303419</v>
+        <v>0.04493103890127509</v>
       </c>
       <c r="F9">
-        <v>1.006395037696289</v>
+        <v>0.9998651052281677</v>
       </c>
       <c r="G9">
-        <v>1212830.217708471</v>
+        <v>1534451.86152532</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.11830088552909</v>
+        <v>3.993632376174386</v>
       </c>
       <c r="C10">
-        <v>1.019379926903456</v>
+        <v>0.9604675698083761</v>
       </c>
       <c r="D10">
-        <v>2.804586668643993</v>
+        <v>2.707488915989804</v>
       </c>
       <c r="E10">
-        <v>0.03230121457117911</v>
+        <v>0.02953814814087122</v>
       </c>
       <c r="F10">
-        <v>1.310176388294745</v>
+        <v>1.482905544868355</v>
       </c>
       <c r="G10">
-        <v>1278233.36299925</v>
+        <v>1629797.836049628</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.318720708042999</v>
+        <v>2.048751832191632</v>
       </c>
       <c r="C11">
-        <v>1.140327717323781</v>
+        <v>1.055053305759662</v>
       </c>
       <c r="D11">
-        <v>1.936546118117336</v>
+        <v>2.311908778030931</v>
       </c>
       <c r="E11">
-        <v>0.04856987177256666</v>
+        <v>0.03267505722170123</v>
       </c>
       <c r="F11">
-        <v>1.08476531311657</v>
+        <v>1.346804679942829</v>
       </c>
       <c r="G11">
-        <v>1749145.976454356</v>
+        <v>1189301.803969195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.449492592447422</v>
+        <v>1.950709176666551</v>
       </c>
       <c r="C12">
-        <v>1.122459356119954</v>
+        <v>1.016542495427331</v>
       </c>
       <c r="D12">
-        <v>2.403724752822668</v>
+        <v>1.5887974865503</v>
       </c>
       <c r="E12">
-        <v>0.04163599552632233</v>
+        <v>0.0347399797441876</v>
       </c>
       <c r="F12">
-        <v>1.276880686628322</v>
+        <v>1.010373027946823</v>
       </c>
       <c r="G12">
-        <v>1856844.553848614</v>
+        <v>1078152.673621702</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.747183626467212</v>
+        <v>3.230160344103233</v>
       </c>
       <c r="C13">
-        <v>1.117786946023585</v>
+        <v>1.069070653516839</v>
       </c>
       <c r="D13">
-        <v>1.739940579531059</v>
+        <v>2.432115791264368</v>
       </c>
       <c r="E13">
-        <v>0.05645413594987355</v>
+        <v>0.03880247043707652</v>
       </c>
       <c r="F13">
-        <v>0.8374262871715662</v>
+        <v>0.9435736862433051</v>
       </c>
       <c r="G13">
-        <v>1859243.315536733</v>
+        <v>1628949.191921235</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.838648138118561</v>
+        <v>4.450098236976261</v>
       </c>
       <c r="C14">
-        <v>0.9896238365042058</v>
+        <v>1.241572736565032</v>
       </c>
       <c r="D14">
-        <v>1.691590903510181</v>
+        <v>2.339437300634303</v>
       </c>
       <c r="E14">
-        <v>0.03119519795998706</v>
+        <v>0.03770386589050541</v>
       </c>
       <c r="F14">
-        <v>0.9265687533906735</v>
+        <v>1.424871457432719</v>
       </c>
       <c r="G14">
-        <v>1105478.805973741</v>
+        <v>2031000.16668194</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.663642487223755</v>
+        <v>4.531993967922422</v>
       </c>
       <c r="C15">
-        <v>1.025933370764021</v>
+        <v>0.9980832465577752</v>
       </c>
       <c r="D15">
-        <v>1.164354343398261</v>
+        <v>1.42125349864996</v>
       </c>
       <c r="E15">
-        <v>0.02956342530951721</v>
+        <v>0.03741637366989624</v>
       </c>
       <c r="F15">
-        <v>1.22702628736599</v>
+        <v>1.493704785903752</v>
       </c>
       <c r="G15">
-        <v>1172917.322781943</v>
+        <v>1451898.801533158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.064000449522008</v>
+        <v>4.138955751340362</v>
       </c>
       <c r="C16">
-        <v>0.9596785499960178</v>
+        <v>1.224018187454478</v>
       </c>
       <c r="D16">
-        <v>1.38894760415094</v>
+        <v>1.603261034478855</v>
       </c>
       <c r="E16">
-        <v>0.03478305007985791</v>
+        <v>0.02919893640580341</v>
       </c>
       <c r="F16">
-        <v>0.9509527228024129</v>
+        <v>0.9049606185772604</v>
       </c>
       <c r="G16">
-        <v>1028826.221059939</v>
+        <v>2090540.740425038</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.88482699038587</v>
+        <v>2.970901917595125</v>
       </c>
       <c r="C17">
-        <v>1.006335475576061</v>
+        <v>1.163531027527899</v>
       </c>
       <c r="D17">
-        <v>2.09942397278909</v>
+        <v>1.533879761384851</v>
       </c>
       <c r="E17">
-        <v>0.05526434907687483</v>
+        <v>0.04511924360860715</v>
       </c>
       <c r="F17">
-        <v>1.042867892043909</v>
+        <v>0.8787090890175071</v>
       </c>
       <c r="G17">
-        <v>922959.3669182991</v>
+        <v>1457916.204312997</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.8055201889642</v>
+        <v>3.717671854467048</v>
       </c>
       <c r="C18">
-        <v>1.233667419768565</v>
+        <v>1.218843266827668</v>
       </c>
       <c r="D18">
-        <v>1.307366979888003</v>
+        <v>2.943023015053996</v>
       </c>
       <c r="E18">
-        <v>0.04299321454082607</v>
+        <v>0.04118922391316811</v>
       </c>
       <c r="F18">
-        <v>1.33653302008249</v>
+        <v>1.201566241965294</v>
       </c>
       <c r="G18">
-        <v>1224786.624406111</v>
+        <v>1963054.814504856</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.72363079118011</v>
+        <v>2.750736079579617</v>
       </c>
       <c r="C19">
-        <v>0.9685979045896037</v>
+        <v>0.9416505459962863</v>
       </c>
       <c r="D19">
-        <v>1.513913214752955</v>
+        <v>2.962186247824145</v>
       </c>
       <c r="E19">
-        <v>0.03158547521685962</v>
+        <v>0.05669914809579517</v>
       </c>
       <c r="F19">
-        <v>0.9418357416925724</v>
+        <v>1.359655994985938</v>
       </c>
       <c r="G19">
-        <v>1252409.601560084</v>
+        <v>1036878.532345934</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.650950346421184</v>
+        <v>2.593189180497988</v>
       </c>
       <c r="C20">
-        <v>1.189628340212399</v>
+        <v>0.9569654665087719</v>
       </c>
       <c r="D20">
-        <v>2.038289261800964</v>
+        <v>2.866152992045953</v>
       </c>
       <c r="E20">
-        <v>0.03498491615459371</v>
+        <v>0.04149357593143813</v>
       </c>
       <c r="F20">
-        <v>1.47509003887777</v>
+        <v>1.097533234770361</v>
       </c>
       <c r="G20">
-        <v>1079946.600154753</v>
+        <v>1292479.939314011</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.22193175586119</v>
+        <v>1.770292633066608</v>
       </c>
       <c r="C21">
-        <v>1.104449356683994</v>
+        <v>1.022658752267923</v>
       </c>
       <c r="D21">
-        <v>1.773850615358255</v>
+        <v>1.045960250557522</v>
       </c>
       <c r="E21">
-        <v>0.04526703858075075</v>
+        <v>0.05634934275033092</v>
       </c>
       <c r="F21">
-        <v>1.236811102356495</v>
+        <v>1.081932141414757</v>
       </c>
       <c r="G21">
-        <v>1052575.06435042</v>
+        <v>697965.0600810237</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.58073561771981</v>
+        <v>3.570944897922513</v>
       </c>
       <c r="C22">
-        <v>0.9723272257114225</v>
+        <v>1.208430554355259</v>
       </c>
       <c r="D22">
-        <v>1.865474203869661</v>
+        <v>2.129976726646689</v>
       </c>
       <c r="E22">
-        <v>0.02997493983245722</v>
+        <v>0.04881957071857024</v>
       </c>
       <c r="F22">
-        <v>1.441541563512332</v>
+        <v>1.226303200219464</v>
       </c>
       <c r="G22">
-        <v>1392217.944404429</v>
+        <v>1580900.605229681</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.781984841834924</v>
+        <v>4.263881641093879</v>
       </c>
       <c r="C23">
-        <v>1.25006693442223</v>
+        <v>0.9862653465815088</v>
       </c>
       <c r="D23">
-        <v>2.352369442344337</v>
+        <v>1.344925262917104</v>
       </c>
       <c r="E23">
-        <v>0.03280129571227778</v>
+        <v>0.03329962847365857</v>
       </c>
       <c r="F23">
-        <v>1.47056544216594</v>
+        <v>1.333323150524054</v>
       </c>
       <c r="G23">
-        <v>1905897.237484173</v>
+        <v>1471667.437609138</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.89589090063493</v>
+        <v>4.1756867791609</v>
       </c>
       <c r="C24">
-        <v>1.113341251809451</v>
+        <v>1.199155037984651</v>
       </c>
       <c r="D24">
-        <v>2.16474424180498</v>
+        <v>2.357482687361351</v>
       </c>
       <c r="E24">
-        <v>0.03561028299718365</v>
+        <v>0.03043007946572521</v>
       </c>
       <c r="F24">
-        <v>1.379474315037148</v>
+        <v>1.092275029626058</v>
       </c>
       <c r="G24">
-        <v>1397932.489088934</v>
+        <v>2147762.347049174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.935825520577198</v>
+        <v>3.117585091638875</v>
       </c>
       <c r="C25">
-        <v>1.058980874327819</v>
+        <v>1.103558534347844</v>
       </c>
       <c r="D25">
-        <v>2.549462835189851</v>
+        <v>1.012679560043592</v>
       </c>
       <c r="E25">
-        <v>0.05210149165340237</v>
+        <v>0.054564553528862</v>
       </c>
       <c r="F25">
-        <v>0.8137219515429236</v>
+        <v>1.241104709975865</v>
       </c>
       <c r="G25">
-        <v>1228802.371952618</v>
+        <v>1015872.888728812</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.872992229457543</v>
+        <v>2.886390135925969</v>
       </c>
       <c r="C26">
-        <v>1.099384084115341</v>
+        <v>1.083921260689277</v>
       </c>
       <c r="D26">
-        <v>2.226283474089886</v>
+        <v>2.510573189054181</v>
       </c>
       <c r="E26">
-        <v>0.05786429927528364</v>
+        <v>0.0571545374567511</v>
       </c>
       <c r="F26">
-        <v>1.407361778013279</v>
+        <v>1.380038758571326</v>
       </c>
       <c r="G26">
-        <v>1056478.309951418</v>
+        <v>1123117.432967792</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.748777106251652</v>
+        <v>2.799064842202061</v>
       </c>
       <c r="C27">
-        <v>1.182951550743893</v>
+        <v>1.186100104740268</v>
       </c>
       <c r="D27">
-        <v>2.636621832253493</v>
+        <v>1.7560563386353</v>
       </c>
       <c r="E27">
-        <v>0.03623547781770096</v>
+        <v>0.04599372366991075</v>
       </c>
       <c r="F27">
-        <v>1.11056106948259</v>
+        <v>1.432012641491086</v>
       </c>
       <c r="G27">
-        <v>1961504.020714147</v>
+        <v>1179850.192054298</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.010474521084715</v>
+        <v>2.395865062561766</v>
       </c>
       <c r="C28">
-        <v>0.963742366155709</v>
+        <v>1.118387831815342</v>
       </c>
       <c r="D28">
-        <v>1.490021069834912</v>
+        <v>2.809354426426356</v>
       </c>
       <c r="E28">
-        <v>0.04658549997559835</v>
+        <v>0.04812650492911826</v>
       </c>
       <c r="F28">
-        <v>0.830788886182069</v>
+        <v>1.125176849791471</v>
       </c>
       <c r="G28">
-        <v>1218617.075342293</v>
+        <v>1345148.869753299</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.608450193933638</v>
+        <v>4.632072640725671</v>
       </c>
       <c r="C29">
-        <v>0.9959604577624391</v>
+        <v>1.060733665306738</v>
       </c>
       <c r="D29">
-        <v>2.996315347668456</v>
+        <v>1.662072892706002</v>
       </c>
       <c r="E29">
-        <v>0.03418778581406558</v>
+        <v>0.05596512914752157</v>
       </c>
       <c r="F29">
-        <v>1.122028038035231</v>
+        <v>0.9110770974619857</v>
       </c>
       <c r="G29">
-        <v>1449978.363451855</v>
+        <v>1674405.236061055</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.42670821193942</v>
+        <v>1.700688417488633</v>
       </c>
       <c r="C30">
-        <v>0.9819273188977998</v>
+        <v>1.036090748173184</v>
       </c>
       <c r="D30">
-        <v>2.681681479518764</v>
+        <v>2.201564404781419</v>
       </c>
       <c r="E30">
-        <v>0.03371430393633154</v>
+        <v>0.0467420673328296</v>
       </c>
       <c r="F30">
-        <v>1.16245605956414</v>
+        <v>0.8114464572433439</v>
       </c>
       <c r="G30">
-        <v>1566401.369528462</v>
+        <v>1123289.346967431</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.492189732509837</v>
+        <v>3.489840963517419</v>
       </c>
       <c r="C31">
-        <v>0.9254210646212981</v>
+        <v>1.246745693486296</v>
       </c>
       <c r="D31">
-        <v>1.894951328300452</v>
+        <v>1.134366276089229</v>
       </c>
       <c r="E31">
-        <v>0.05328646082129314</v>
+        <v>0.04401590832906863</v>
       </c>
       <c r="F31">
-        <v>0.9114733118433962</v>
+        <v>1.072157753959317</v>
       </c>
       <c r="G31">
-        <v>1493670.787347139</v>
+        <v>1530929.270202436</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.526508373243734</v>
+        <v>4.03783030473117</v>
       </c>
       <c r="C32">
-        <v>1.132555664073776</v>
+        <v>1.151250762416274</v>
       </c>
       <c r="D32">
-        <v>1.972947203997625</v>
+        <v>1.30086194426418</v>
       </c>
       <c r="E32">
-        <v>0.05572814128966534</v>
+        <v>0.03416136737608157</v>
       </c>
       <c r="F32">
-        <v>1.181605759683968</v>
+        <v>1.26986418137053</v>
       </c>
       <c r="G32">
-        <v>1651970.487150084</v>
+        <v>1654072.71008609</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.075998484596586</v>
+        <v>3.133171388021463</v>
       </c>
       <c r="C33">
-        <v>1.155200605574274</v>
+        <v>1.073462561032355</v>
       </c>
       <c r="D33">
-        <v>2.494793657014461</v>
+        <v>1.466774017516442</v>
       </c>
       <c r="E33">
-        <v>0.04117893187537829</v>
+        <v>0.05768184463232998</v>
       </c>
       <c r="F33">
-        <v>1.157230809486924</v>
+        <v>1.169397972281525</v>
       </c>
       <c r="G33">
-        <v>1888236.738763548</v>
+        <v>1081109.927557467</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.246280325531357</v>
+        <v>2.152849895860692</v>
       </c>
       <c r="C34">
-        <v>1.176802467588935</v>
+        <v>0.9691381554438768</v>
       </c>
       <c r="D34">
-        <v>1.902699152064124</v>
+        <v>1.997267826541342</v>
       </c>
       <c r="E34">
-        <v>0.05136748988303664</v>
+        <v>0.05126727410079712</v>
       </c>
       <c r="F34">
-        <v>1.189454936120842</v>
+        <v>0.962642630298467</v>
       </c>
       <c r="G34">
-        <v>1099976.944516989</v>
+        <v>1008731.611612036</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.633851759060317</v>
+        <v>4.051429941951261</v>
       </c>
       <c r="C35">
-        <v>1.084194302803376</v>
+        <v>0.9734769622645761</v>
       </c>
       <c r="D35">
-        <v>1.40497438173518</v>
+        <v>2.779975431239287</v>
       </c>
       <c r="E35">
-        <v>0.0458874649481003</v>
+        <v>0.03957705095775298</v>
       </c>
       <c r="F35">
-        <v>0.9957040869552185</v>
+        <v>0.934564490915001</v>
       </c>
       <c r="G35">
-        <v>1718568.345623026</v>
+        <v>1753249.885505361</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.54565958866573</v>
+        <v>1.864056534912231</v>
       </c>
       <c r="C36">
-        <v>0.9527981320613317</v>
+        <v>0.9300583879241456</v>
       </c>
       <c r="D36">
-        <v>2.610046736269084</v>
+        <v>2.62214770532249</v>
       </c>
       <c r="E36">
-        <v>0.05499137793410719</v>
+        <v>0.03608777621089235</v>
       </c>
       <c r="F36">
-        <v>1.342776440554435</v>
+        <v>0.8062948113953415</v>
       </c>
       <c r="G36">
-        <v>969577.1426917606</v>
+        <v>1205707.970389181</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.702280402654265</v>
+        <v>1.835171273944856</v>
       </c>
       <c r="C37">
-        <v>1.030566669385137</v>
+        <v>1.045795095238801</v>
       </c>
       <c r="D37">
-        <v>1.707329586543803</v>
+        <v>2.167589554988627</v>
       </c>
       <c r="E37">
-        <v>0.03096376489509861</v>
+        <v>0.0352124746101115</v>
       </c>
       <c r="F37">
-        <v>0.8844912074262679</v>
+        <v>1.250870660899042</v>
       </c>
       <c r="G37">
-        <v>1391215.180596682</v>
+        <v>1096451.01355075</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.537263761619909</v>
+        <v>1.903795153605933</v>
       </c>
       <c r="C38">
-        <v>1.073738763496822</v>
+        <v>1.1967074235636</v>
       </c>
       <c r="D38">
-        <v>2.744105791024759</v>
+        <v>2.014810764374661</v>
       </c>
       <c r="E38">
-        <v>0.04410868659304196</v>
+        <v>0.04339174568051482</v>
       </c>
       <c r="F38">
-        <v>1.293182920126449</v>
+        <v>0.8495635806061475</v>
       </c>
       <c r="G38">
-        <v>1553117.773570832</v>
+        <v>1328192.828752519</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.19775084471245</v>
+        <v>2.69641816926641</v>
       </c>
       <c r="C39">
-        <v>1.079240644573021</v>
+        <v>1.219598560197597</v>
       </c>
       <c r="D39">
-        <v>1.138216916978367</v>
+        <v>1.15191261661871</v>
       </c>
       <c r="E39">
-        <v>0.04270267565991519</v>
+        <v>0.05188567657254782</v>
       </c>
       <c r="F39">
-        <v>1.256812801012018</v>
+        <v>1.207131465655115</v>
       </c>
       <c r="G39">
-        <v>1444599.42565416</v>
+        <v>1088824.59833614</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.506444582831208</v>
+        <v>4.695306394721843</v>
       </c>
       <c r="C40">
-        <v>1.124116489165436</v>
+        <v>1.233997003344102</v>
       </c>
       <c r="D40">
-        <v>2.184979649975228</v>
+        <v>2.6387210908106</v>
       </c>
       <c r="E40">
-        <v>0.05430953190425396</v>
+        <v>0.03001706045128807</v>
       </c>
       <c r="F40">
-        <v>0.8445099352576886</v>
+        <v>0.9898692342602824</v>
       </c>
       <c r="G40">
-        <v>1345143.878523445</v>
+        <v>2496554.857401174</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.50274000854837</v>
+        <v>3.060717156525557</v>
       </c>
       <c r="C41">
-        <v>1.215876834448783</v>
+        <v>1.167207220238622</v>
       </c>
       <c r="D41">
-        <v>2.451915239528007</v>
+        <v>1.233888307833247</v>
       </c>
       <c r="E41">
-        <v>0.03052380302324459</v>
+        <v>0.03721587545515279</v>
       </c>
       <c r="F41">
-        <v>1.392487916316201</v>
+        <v>1.033365594718497</v>
       </c>
       <c r="G41">
-        <v>1864921.230955414</v>
+        <v>1437011.170716407</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.901039166938349</v>
+        <v>2.870842019607207</v>
       </c>
       <c r="C42">
-        <v>1.147671820141577</v>
+        <v>1.213511905464482</v>
       </c>
       <c r="D42">
-        <v>1.586408241151962</v>
+        <v>2.76148989192244</v>
       </c>
       <c r="E42">
-        <v>0.04069782641832709</v>
+        <v>0.05350524172196951</v>
       </c>
       <c r="F42">
-        <v>1.16920139328845</v>
+        <v>1.337062284446207</v>
       </c>
       <c r="G42">
-        <v>1621533.269747507</v>
+        <v>1386838.775290265</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.186550775636758</v>
+        <v>2.111407991047595</v>
       </c>
       <c r="C43">
-        <v>1.128767339185998</v>
+        <v>0.936179554256685</v>
       </c>
       <c r="D43">
-        <v>1.344102021642187</v>
+        <v>2.743448932031835</v>
       </c>
       <c r="E43">
-        <v>0.05358614314041434</v>
+        <v>0.05365744033172758</v>
       </c>
       <c r="F43">
-        <v>1.461772397602023</v>
+        <v>0.8598643733917929</v>
       </c>
       <c r="G43">
-        <v>1020526.595139195</v>
+        <v>1124730.51725726</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.27021069993115</v>
+        <v>3.433944546433287</v>
       </c>
       <c r="C44">
-        <v>1.074938290017907</v>
+        <v>1.014755519424028</v>
       </c>
       <c r="D44">
-        <v>2.02019068020914</v>
+        <v>1.083933520127503</v>
       </c>
       <c r="E44">
-        <v>0.04340066730818049</v>
+        <v>0.04607168169313609</v>
       </c>
       <c r="F44">
-        <v>1.244345638187392</v>
+        <v>0.9754678021349835</v>
       </c>
       <c r="G44">
-        <v>1638200.190629209</v>
+        <v>1245847.321596717</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.662177173913054</v>
+        <v>3.257897352851595</v>
       </c>
       <c r="C45">
-        <v>1.088448279423783</v>
+        <v>1.096752805800621</v>
       </c>
       <c r="D45">
-        <v>2.13517079866469</v>
+        <v>1.89056360659053</v>
       </c>
       <c r="E45">
-        <v>0.04023669741527025</v>
+        <v>0.04742858270548328</v>
       </c>
       <c r="F45">
-        <v>0.9694554033895975</v>
+        <v>0.8675291668759413</v>
       </c>
       <c r="G45">
-        <v>1687649.886918315</v>
+        <v>1510215.060303187</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.754564009604979</v>
+        <v>3.343912162639965</v>
       </c>
       <c r="C46">
-        <v>1.219971999530852</v>
+        <v>1.063316613735681</v>
       </c>
       <c r="D46">
-        <v>1.533096240150993</v>
+        <v>1.740075333218557</v>
       </c>
       <c r="E46">
-        <v>0.05082622636950751</v>
+        <v>0.04240015612829519</v>
       </c>
       <c r="F46">
-        <v>1.316851630953785</v>
+        <v>1.256295548822615</v>
       </c>
       <c r="G46">
-        <v>1141050.36637901</v>
+        <v>1323060.66347079</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.933201358501005</v>
+        <v>2.670079307982055</v>
       </c>
       <c r="C47">
-        <v>1.204579407474144</v>
+        <v>1.111426278798527</v>
       </c>
       <c r="D47">
-        <v>1.291667525011467</v>
+        <v>2.402100704349647</v>
       </c>
       <c r="E47">
-        <v>0.03714462773721274</v>
+        <v>0.04275101594343152</v>
       </c>
       <c r="F47">
-        <v>1.139604804040102</v>
+        <v>1.061899865987211</v>
       </c>
       <c r="G47">
-        <v>1710044.855170045</v>
+        <v>1425797.10297518</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.581684336242301</v>
+        <v>2.587560954595373</v>
       </c>
       <c r="C48">
-        <v>1.198949945885817</v>
+        <v>0.965861391835751</v>
       </c>
       <c r="D48">
-        <v>2.763023617510662</v>
+        <v>1.932392598966715</v>
       </c>
       <c r="E48">
-        <v>0.039070348695922</v>
+        <v>0.04039999522366012</v>
       </c>
       <c r="F48">
-        <v>1.197597256289076</v>
+        <v>1.006937735205272</v>
       </c>
       <c r="G48">
-        <v>2191874.620779706</v>
+        <v>1180864.820878917</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.348801109095249</v>
+        <v>1.817784420996948</v>
       </c>
       <c r="C49">
-        <v>1.193364452832972</v>
+        <v>1.203167749591249</v>
       </c>
       <c r="D49">
-        <v>2.662448108658818</v>
+        <v>2.24481111287507</v>
       </c>
       <c r="E49">
-        <v>0.04046134315463001</v>
+        <v>0.03682066517011473</v>
       </c>
       <c r="F49">
-        <v>0.865856411569641</v>
+        <v>0.8240791311012475</v>
       </c>
       <c r="G49">
-        <v>1929348.71750724</v>
+        <v>1444220.444987787</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.097093664104156</v>
+        <v>4.553531156795032</v>
       </c>
       <c r="C50">
-        <v>1.241366972477973</v>
+        <v>1.011903020029215</v>
       </c>
       <c r="D50">
-        <v>1.274591317297905</v>
+        <v>1.379411362570895</v>
       </c>
       <c r="E50">
-        <v>0.05154511049627318</v>
+        <v>0.04311142614721857</v>
       </c>
       <c r="F50">
-        <v>0.9894741572236188</v>
+        <v>1.139231026599971</v>
       </c>
       <c r="G50">
-        <v>1696675.883231004</v>
+        <v>1541021.614194729</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.808664827265313</v>
+        <v>4.246736726150472</v>
       </c>
       <c r="C51">
-        <v>0.9335606846511195</v>
+        <v>1.192439566757655</v>
       </c>
       <c r="D51">
-        <v>2.326096843145022</v>
+        <v>2.11058566826161</v>
       </c>
       <c r="E51">
-        <v>0.02910776056460826</v>
+        <v>0.03942156594872592</v>
       </c>
       <c r="F51">
-        <v>1.142676683612486</v>
+        <v>1.122572747269648</v>
       </c>
       <c r="G51">
-        <v>1820605.405011199</v>
+        <v>1955115.49624463</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.404093204491813</v>
+        <v>2.223482996186137</v>
       </c>
       <c r="C52">
-        <v>0.9949679044777677</v>
+        <v>1.042143020957937</v>
       </c>
       <c r="D52">
-        <v>1.625582473857023</v>
+        <v>1.784365992068614</v>
       </c>
       <c r="E52">
-        <v>0.05591215855316523</v>
+        <v>0.0324759310364524</v>
       </c>
       <c r="F52">
-        <v>0.8012442972501428</v>
+        <v>0.9530538648828685</v>
       </c>
       <c r="G52">
-        <v>1570912.416820982</v>
+        <v>1258243.267361769</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.71392446064305</v>
+        <v>2.006776958218251</v>
       </c>
       <c r="C53">
-        <v>0.984793653957556</v>
+        <v>1.236797703725019</v>
       </c>
       <c r="D53">
-        <v>2.56867676835332</v>
+        <v>1.700047832709232</v>
       </c>
       <c r="E53">
-        <v>0.04454982166118199</v>
+        <v>0.03087669026309616</v>
       </c>
       <c r="F53">
-        <v>1.303661503078755</v>
+        <v>0.8799961010600702</v>
       </c>
       <c r="G53">
-        <v>942021.3131450745</v>
+        <v>1457346.065672638</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.985192870857139</v>
+        <v>4.129852986074132</v>
       </c>
       <c r="C54">
-        <v>1.246250322596245</v>
+        <v>1.160147310450894</v>
       </c>
       <c r="D54">
-        <v>2.447157901799912</v>
+        <v>1.504072469878641</v>
       </c>
       <c r="E54">
-        <v>0.04817996623819323</v>
+        <v>0.04830152633318439</v>
       </c>
       <c r="F54">
-        <v>1.356085498037233</v>
+        <v>1.474030472043422</v>
       </c>
       <c r="G54">
-        <v>1458147.782693073</v>
+        <v>1413846.440631636</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.120265419708876</v>
+        <v>2.451428271288925</v>
       </c>
       <c r="C55">
-        <v>1.096330904680706</v>
+        <v>1.250956011103719</v>
       </c>
       <c r="D55">
-        <v>1.059841424419233</v>
+        <v>1.430919281902776</v>
       </c>
       <c r="E55">
-        <v>0.03854695288667593</v>
+        <v>0.035881557374748</v>
       </c>
       <c r="F55">
-        <v>1.012699950717472</v>
+        <v>1.108201668807037</v>
       </c>
       <c r="G55">
-        <v>1323322.322719596</v>
+        <v>1382327.77409798</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.062509785306986</v>
+        <v>2.358516527846979</v>
       </c>
       <c r="C56">
-        <v>1.04890292921735</v>
+        <v>0.9780025732099805</v>
       </c>
       <c r="D56">
-        <v>2.882062149299207</v>
+        <v>1.957336544481063</v>
       </c>
       <c r="E56">
-        <v>0.0352090270262703</v>
+        <v>0.04020897964613596</v>
       </c>
       <c r="F56">
-        <v>1.362193860759672</v>
+        <v>1.216718063986424</v>
       </c>
       <c r="G56">
-        <v>1517701.147299022</v>
+        <v>1063465.127892407</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.344865671966381</v>
+        <v>3.959426067795685</v>
       </c>
       <c r="C57">
-        <v>1.035512379510009</v>
+        <v>1.180705727110833</v>
       </c>
       <c r="D57">
-        <v>1.813746344533053</v>
+        <v>1.675970746941453</v>
       </c>
       <c r="E57">
-        <v>0.04710060212434428</v>
+        <v>0.05240988377819723</v>
       </c>
       <c r="F57">
-        <v>1.018927299990034</v>
+        <v>1.046470778123899</v>
       </c>
       <c r="G57">
-        <v>1104751.096864929</v>
+        <v>1617163.54902442</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.165650825517925</v>
+        <v>2.550503259440994</v>
       </c>
       <c r="C58">
-        <v>1.20932139320445</v>
+        <v>1.108159548256311</v>
       </c>
       <c r="D58">
-        <v>1.111446891295109</v>
+        <v>2.565066004912429</v>
       </c>
       <c r="E58">
-        <v>0.03756202191324955</v>
+        <v>0.05302483684650992</v>
       </c>
       <c r="F58">
-        <v>1.43390707890864</v>
+        <v>1.282497416338722</v>
       </c>
       <c r="G58">
-        <v>1600434.656323058</v>
+        <v>1177438.703557746</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.236777147132536</v>
+        <v>3.829648081189443</v>
       </c>
       <c r="C59">
-        <v>0.9767782525289008</v>
+        <v>1.148480417190543</v>
       </c>
       <c r="D59">
-        <v>1.781530072808592</v>
+        <v>2.908519333540662</v>
       </c>
       <c r="E59">
-        <v>0.04780219386870005</v>
+        <v>0.0385002350081684</v>
       </c>
       <c r="F59">
-        <v>1.26654277968489</v>
+        <v>1.18270494265527</v>
       </c>
       <c r="G59">
-        <v>1126915.941507675</v>
+        <v>1924081.678796764</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.708278018387193</v>
+        <v>1.645217023201542</v>
       </c>
       <c r="C60">
-        <v>0.9469539802774813</v>
+        <v>0.9505545485418677</v>
       </c>
       <c r="D60">
-        <v>1.187683014138052</v>
+        <v>2.654664333499146</v>
       </c>
       <c r="E60">
-        <v>0.05710294989413315</v>
+        <v>0.0349936960688849</v>
       </c>
       <c r="F60">
-        <v>0.8937492625999497</v>
+        <v>1.292491636256339</v>
       </c>
       <c r="G60">
-        <v>1424975.927929285</v>
+        <v>1026948.472622212</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.369650648550071</v>
+        <v>3.864457978498347</v>
       </c>
       <c r="C61">
-        <v>1.167471240121957</v>
+        <v>0.9492569784079496</v>
       </c>
       <c r="D61">
-        <v>2.703500949820759</v>
+        <v>1.187265681062742</v>
       </c>
       <c r="E61">
-        <v>0.03329208253446234</v>
+        <v>0.03136233487232008</v>
       </c>
       <c r="F61">
-        <v>1.421910639955059</v>
+        <v>1.302557545358592</v>
       </c>
       <c r="G61">
-        <v>1747873.634110575</v>
+        <v>1326916.848912994</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.620301955215988</v>
+        <v>3.287037750516966</v>
       </c>
       <c r="C62">
-        <v>1.236447125066062</v>
+        <v>1.139229564640819</v>
       </c>
       <c r="D62">
-        <v>1.097161181121318</v>
+        <v>2.598105113673672</v>
       </c>
       <c r="E62">
-        <v>0.053907329230974</v>
+        <v>0.05483271344570734</v>
       </c>
       <c r="F62">
-        <v>0.858791850736075</v>
+        <v>1.31394900761789</v>
       </c>
       <c r="G62">
-        <v>1560905.858652657</v>
+        <v>1377151.851333742</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.996631945784635</v>
+        <v>4.850208113473313</v>
       </c>
       <c r="C63">
-        <v>1.170717918382533</v>
+        <v>1.122083723025467</v>
       </c>
       <c r="D63">
-        <v>2.861343906370302</v>
+        <v>1.637521367771569</v>
       </c>
       <c r="E63">
-        <v>0.03935391865546757</v>
+        <v>0.04429728115909496</v>
       </c>
       <c r="F63">
-        <v>0.9778460215390261</v>
+        <v>0.9142796677705929</v>
       </c>
       <c r="G63">
-        <v>2091376.388374099</v>
+        <v>1956340.139525521</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.443539382064249</v>
+        <v>3.72693607552174</v>
       </c>
       <c r="C64">
-        <v>1.14291468904694</v>
+        <v>0.9271463874731929</v>
       </c>
       <c r="D64">
-        <v>1.979470616204034</v>
+        <v>2.026057001423335</v>
       </c>
       <c r="E64">
-        <v>0.04203252504781391</v>
+        <v>0.05566910168247437</v>
       </c>
       <c r="F64">
-        <v>1.397996899638466</v>
+        <v>1.362020084976597</v>
       </c>
       <c r="G64">
-        <v>1161482.239715771</v>
+        <v>1089629.244668765</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.703063451369636</v>
+        <v>3.45720554706289</v>
       </c>
       <c r="C65">
-        <v>1.002099429818323</v>
+        <v>0.990907949694035</v>
       </c>
       <c r="D65">
-        <v>1.451228216056789</v>
+        <v>2.254986635871462</v>
       </c>
       <c r="E65">
-        <v>0.03223841451473773</v>
+        <v>0.05042450695911724</v>
       </c>
       <c r="F65">
-        <v>1.210495065971837</v>
+        <v>1.068488084829049</v>
       </c>
       <c r="G65">
-        <v>1430459.315138446</v>
+        <v>1351920.460660235</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.25113114521593</v>
+        <v>4.604418562588489</v>
       </c>
       <c r="C66">
-        <v>1.01303169086507</v>
+        <v>0.9445723033949274</v>
       </c>
       <c r="D66">
-        <v>1.219554509011258</v>
+        <v>2.468951781590057</v>
       </c>
       <c r="E66">
-        <v>0.03786732041328857</v>
+        <v>0.04367281356603244</v>
       </c>
       <c r="F66">
-        <v>1.289378654279014</v>
+        <v>1.158302549454901</v>
       </c>
       <c r="G66">
-        <v>1183892.484118404</v>
+        <v>1638605.10235172</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.01857215734337</v>
+        <v>3.646189118280283</v>
       </c>
       <c r="C67">
-        <v>1.157815898032507</v>
+        <v>1.003301608413014</v>
       </c>
       <c r="D67">
-        <v>2.904062174832437</v>
+        <v>1.290141170040909</v>
       </c>
       <c r="E67">
-        <v>0.04914146632378448</v>
+        <v>0.04706056554525291</v>
       </c>
       <c r="F67">
-        <v>1.073861761448931</v>
+        <v>1.459322916225256</v>
       </c>
       <c r="G67">
-        <v>1322023.980143593</v>
+        <v>1089292.672506047</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.038743414887537</v>
+        <v>3.00933301723967</v>
       </c>
       <c r="C68">
-        <v>1.041210608376767</v>
+        <v>1.130740959551796</v>
       </c>
       <c r="D68">
-        <v>1.362802784767231</v>
+        <v>1.559536838663426</v>
       </c>
       <c r="E68">
-        <v>0.0545174805803891</v>
+        <v>0.03810976794883966</v>
       </c>
       <c r="F68">
-        <v>1.485730928689738</v>
+        <v>0.925756319587641</v>
       </c>
       <c r="G68">
-        <v>1127787.811985967</v>
+        <v>1485440.073979507</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.961752958253393</v>
+        <v>3.611033352332531</v>
       </c>
       <c r="C69">
-        <v>0.945774534083032</v>
+        <v>1.082197650906084</v>
       </c>
       <c r="D69">
-        <v>1.839237854154915</v>
+        <v>2.392184456164778</v>
       </c>
       <c r="E69">
-        <v>0.05658541513385493</v>
+        <v>0.03213633623509302</v>
       </c>
       <c r="F69">
-        <v>0.8206720863063381</v>
+        <v>1.44463975535335</v>
       </c>
       <c r="G69">
-        <v>941113.9527619124</v>
+        <v>1631790.995325728</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.568274381618218</v>
+        <v>3.801572593055393</v>
       </c>
       <c r="C70">
-        <v>1.231019612380601</v>
+        <v>1.229447220719841</v>
       </c>
       <c r="D70">
-        <v>2.596707987309911</v>
+        <v>1.062114784028904</v>
       </c>
       <c r="E70">
-        <v>0.04476498190633574</v>
+        <v>0.03161194569043259</v>
       </c>
       <c r="F70">
-        <v>1.125451514163407</v>
+        <v>1.023984588503039</v>
       </c>
       <c r="G70">
-        <v>2157804.206289732</v>
+        <v>1781501.040060615</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.294268747516298</v>
+        <v>2.765369063049242</v>
       </c>
       <c r="C71">
-        <v>1.038920374877196</v>
+        <v>1.184881325221386</v>
       </c>
       <c r="D71">
-        <v>2.254140013118412</v>
+        <v>1.490716206116641</v>
       </c>
       <c r="E71">
-        <v>0.03962321696938314</v>
+        <v>0.03079160783586126</v>
       </c>
       <c r="F71">
-        <v>0.9325381393329941</v>
+        <v>1.230013610675534</v>
       </c>
       <c r="G71">
-        <v>1560130.452458493</v>
+        <v>1436919.463131067</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.836092164356532</v>
+        <v>4.784937832737794</v>
       </c>
       <c r="C72">
-        <v>1.252608827625259</v>
+        <v>1.086966072318295</v>
       </c>
       <c r="D72">
-        <v>2.972124144365413</v>
+        <v>2.284132567678997</v>
       </c>
       <c r="E72">
-        <v>0.05072954022970707</v>
+        <v>0.04171494712461749</v>
       </c>
       <c r="F72">
-        <v>0.9195872855981087</v>
+        <v>0.8290222904783664</v>
       </c>
       <c r="G72">
-        <v>2101258.181580607</v>
+        <v>2087749.876362706</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.846101354523968</v>
+        <v>2.270586677982172</v>
       </c>
       <c r="C73">
-        <v>1.16184132796877</v>
+        <v>1.255748019032176</v>
       </c>
       <c r="D73">
-        <v>2.280745401663872</v>
+        <v>2.975162676651213</v>
       </c>
       <c r="E73">
-        <v>0.04972543129915825</v>
+        <v>0.03631609549760585</v>
       </c>
       <c r="F73">
-        <v>1.089597704181558</v>
+        <v>1.149971774962137</v>
       </c>
       <c r="G73">
-        <v>2000403.067934425</v>
+        <v>1670413.630943708</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.867525512935392</v>
+        <v>2.255810156790603</v>
       </c>
       <c r="C74">
-        <v>1.210733551927206</v>
+        <v>1.037572978152831</v>
       </c>
       <c r="D74">
-        <v>2.939291427697517</v>
+        <v>1.817334914767095</v>
       </c>
       <c r="E74">
-        <v>0.05749919351235405</v>
+        <v>0.05153786957935028</v>
       </c>
       <c r="F74">
-        <v>1.056902218219012</v>
+        <v>1.399323360904609</v>
       </c>
       <c r="G74">
-        <v>1852649.47117682</v>
+        <v>857829.5604310699</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.218868727898174</v>
+        <v>4.744780360762979</v>
       </c>
       <c r="C75">
-        <v>1.111263033268501</v>
+        <v>1.142998094123782</v>
       </c>
       <c r="D75">
-        <v>1.032368995944911</v>
+        <v>2.494764927823053</v>
       </c>
       <c r="E75">
-        <v>0.04616544554533933</v>
+        <v>0.05524974058383079</v>
       </c>
       <c r="F75">
-        <v>1.369684813315452</v>
+        <v>1.419577585558043</v>
       </c>
       <c r="G75">
-        <v>1364748.007205367</v>
+        <v>1704370.960609718</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.796381700968436</v>
+        <v>4.355991535832667</v>
       </c>
       <c r="C76">
-        <v>1.225191196123233</v>
+        <v>1.125970329679577</v>
       </c>
       <c r="D76">
-        <v>1.666593442429147</v>
+        <v>1.103185298793834</v>
       </c>
       <c r="E76">
-        <v>0.05242089335077943</v>
+        <v>0.05268374102251547</v>
       </c>
       <c r="F76">
-        <v>1.046610402808335</v>
+        <v>1.161355628401165</v>
       </c>
       <c r="G76">
-        <v>1036392.778769485</v>
+        <v>1458766.530678678</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.296923386775735</v>
+        <v>2.948741997958557</v>
       </c>
       <c r="C77">
-        <v>1.02267471391019</v>
+        <v>1.050748506315306</v>
       </c>
       <c r="D77">
-        <v>1.43395094055955</v>
+        <v>1.92255883449494</v>
       </c>
       <c r="E77">
-        <v>0.0362706908813511</v>
+        <v>0.04754094732221804</v>
       </c>
       <c r="F77">
-        <v>1.253510869998225</v>
+        <v>1.322695005225263</v>
       </c>
       <c r="G77">
-        <v>1033827.487309441</v>
+        <v>1142947.588644906</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.470010675631077</v>
+        <v>2.488346122737368</v>
       </c>
       <c r="C78">
-        <v>1.064226258740429</v>
+        <v>0.9939252435350406</v>
       </c>
       <c r="D78">
-        <v>2.060484617002363</v>
+        <v>2.086109651349414</v>
       </c>
       <c r="E78">
-        <v>0.04954764774254823</v>
+        <v>0.04554763433738497</v>
       </c>
       <c r="F78">
-        <v>1.09871862906662</v>
+        <v>1.193152051642521</v>
       </c>
       <c r="G78">
-        <v>1409653.544734939</v>
+        <v>1082316.211863668</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.102565365164354</v>
+        <v>3.913001796809016</v>
       </c>
       <c r="C79">
-        <v>0.9302375028298361</v>
+        <v>0.9824753590821617</v>
       </c>
       <c r="D79">
-        <v>2.381893498456789</v>
+        <v>1.363313290026077</v>
       </c>
       <c r="E79">
-        <v>0.05027752387725613</v>
+        <v>0.04992280701107177</v>
       </c>
       <c r="F79">
-        <v>1.331001236421494</v>
+        <v>1.473635009204334</v>
       </c>
       <c r="G79">
-        <v>869176.6865786305</v>
+        <v>1098979.422305911</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.684882322812847</v>
+        <v>2.313746978863729</v>
       </c>
       <c r="C80">
-        <v>1.178223950844517</v>
+        <v>1.155933362770138</v>
       </c>
       <c r="D80">
-        <v>2.311436626440525</v>
+        <v>2.534479696766303</v>
       </c>
       <c r="E80">
-        <v>0.04889108914764537</v>
+        <v>0.05105867082616551</v>
       </c>
       <c r="F80">
-        <v>1.067146949042096</v>
+        <v>1.043154699930664</v>
       </c>
       <c r="G80">
-        <v>1130104.271061119</v>
+        <v>1317989.364178881</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.940963387665724</v>
+        <v>3.524648748123996</v>
       </c>
       <c r="C81">
-        <v>0.9402510486936038</v>
+        <v>1.005722455753759</v>
       </c>
       <c r="D81">
-        <v>2.211237769014817</v>
+        <v>1.26715058629954</v>
       </c>
       <c r="E81">
-        <v>0.0453348404795399</v>
+        <v>0.03353575494337806</v>
       </c>
       <c r="F81">
-        <v>0.8966135411227928</v>
+        <v>1.451298471168494</v>
       </c>
       <c r="G81">
-        <v>1282556.951105501</v>
+        <v>1253585.815400374</v>
       </c>
     </row>
   </sheetData>
